--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Assets</t>
   </si>
@@ -244,13 +244,31 @@
   </si>
   <si>
     <t>3D_WSWORD_001</t>
+  </si>
+  <si>
+    <t>3d_ENVBOOK_003</t>
+  </si>
+  <si>
+    <t>3D_ENVPOR_001</t>
+  </si>
+  <si>
+    <t>3D_ENVPOR_002</t>
+  </si>
+  <si>
+    <t>3D_ENVPOR_003</t>
+  </si>
+  <si>
+    <t>3D_ENVPOR_004</t>
+  </si>
+  <si>
+    <t>3D_ENVPOP_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +276,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +302,16 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,14 +339,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,366 +680,473 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="11268" yWindow="0" windowWidth="11772" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$81</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>Assets</t>
   </si>
@@ -262,6 +265,30 @@
   </si>
   <si>
     <t>3D_ENVPOP_001</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>carlo</t>
+  </si>
+  <si>
+    <t>3D_ENVHA_001</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>thuis op computer</t>
+  </si>
+  <si>
+    <t>scrapped</t>
+  </si>
+  <si>
+    <t>need to sync</t>
   </si>
 </sst>
 </file>
@@ -344,11 +371,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -652,503 +681,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="D60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B67" s="2"/>
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="D77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="D81" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E81"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Assets</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>need to sync</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -683,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,6 +1167,12 @@
         <v>10</v>
       </c>
       <c r="B68" s="2"/>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -1250,6 +1259,9 @@
         <v>84</v>
       </c>
       <c r="B81" s="2"/>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
       <c r="D81" t="s">
         <v>83</v>
       </c>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Assets</t>
   </si>
@@ -129,9 +129,6 @@
     <t>3D_ENEGH_001</t>
   </si>
   <si>
-    <t>3D_ENEGF_001</t>
-  </si>
-  <si>
     <t>3D_ENVSLI_001</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>kevin</t>
   </si>
   <si>
-    <t>thuis op computer</t>
-  </si>
-  <si>
     <t>scrapped</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>3D_ENEDF_001</t>
+  </si>
+  <si>
+    <t>Marc</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -368,19 +368,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -686,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +714,7 @@
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,109 +725,121 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2"/>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -819,11 +847,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -835,7 +863,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -843,19 +871,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3"/>
     </row>
@@ -883,10 +911,10 @@
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,7 +923,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -903,7 +931,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3"/>
     </row>
@@ -925,25 +953,28 @@
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
       <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,34 +982,34 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3"/>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2"/>
     </row>
@@ -990,13 +1021,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3"/>
     </row>
@@ -1032,37 +1063,37 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="3"/>
     </row>
@@ -1074,13 +1105,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3"/>
     </row>
@@ -1092,7 +1123,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="3"/>
     </row>
@@ -1114,7 +1145,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,31 +1156,31 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3"/>
     </row>
@@ -1159,7 +1190,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1168,27 +1199,27 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="3"/>
     </row>
@@ -1206,13 +1237,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="3"/>
     </row>
@@ -1228,7 +1259,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1239,31 +1270,31 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="2"/>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab1\Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="0" windowWidth="11772" windowHeight="9684"/>
+    <workbookView xWindow="11265" yWindow="0" windowWidth="11775" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>Assets</t>
   </si>
@@ -292,6 +297,9 @@
   </si>
   <si>
     <t>Marc</t>
+  </si>
+  <si>
+    <t>marc</t>
   </si>
 </sst>
 </file>
@@ -409,6 +417,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -456,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,19 +713,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,31 +742,31 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -773,59 +784,62 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
       <c r="D15" t="s">
         <v>82</v>
       </c>
@@ -833,11 +847,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
       <c r="D16" t="s">
         <v>82</v>
       </c>
@@ -845,11 +862,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
@@ -857,11 +877,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
       <c r="D18" t="s">
         <v>82</v>
       </c>
@@ -869,43 +892,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -917,7 +952,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -929,37 +964,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -974,25 +1018,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1001,199 +1045,214 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="2"/>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
       <c r="D60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="2"/>
       <c r="D67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,75 +1264,93 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="2"/>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
       <c r="D77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
@@ -1285,7 +1362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>83</v>
       </c>
@@ -1309,7 +1386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1321,7 +1398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Assets</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>marc</t>
+  </si>
+  <si>
+    <t>need to export</t>
   </si>
 </sst>
 </file>
@@ -713,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,6 +906,9 @@
       <c r="D19" t="s">
         <v>91</v>
       </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -975,6 +981,9 @@
         <v>31</v>
       </c>
       <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" t="s">
         <v>91</v>
       </c>
@@ -984,6 +993,9 @@
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
       <c r="D29" t="s">
         <v>91</v>
       </c>
@@ -1355,6 +1367,9 @@
         <v>74</v>
       </c>
       <c r="B80" s="2"/>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
       <c r="D80" t="s">
         <v>82</v>
       </c>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>Assets</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>need to export</t>
+  </si>
+  <si>
+    <t>lara</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +831,12 @@
         <v>5</v>
       </c>
       <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -927,12 +936,30 @@
         <v>25</v>
       </c>
       <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1004,7 +1031,10 @@
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
       <c r="D30" t="s">
         <v>91</v>
       </c>
@@ -1030,25 +1060,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1057,19 +1087,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -1078,136 +1108,199 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="2"/>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
       <c r="D54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
       <c r="D59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,25 +1312,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -1247,7 +1340,13 @@
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1260,6 +1359,9 @@
         <v>16</v>
       </c>
       <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
       <c r="D67" t="s">
         <v>91</v>
       </c>
@@ -1299,6 +1401,9 @@
         <v>17</v>
       </c>
       <c r="B72" s="2"/>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
       <c r="D72" t="s">
         <v>91</v>
       </c>
@@ -1308,6 +1413,9 @@
         <v>34</v>
       </c>
       <c r="B73" s="2"/>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
       <c r="D73" t="s">
         <v>91</v>
       </c>
@@ -1329,6 +1437,9 @@
         <v>27</v>
       </c>
       <c r="B76" s="2"/>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
       <c r="D76" t="s">
         <v>91</v>
       </c>
@@ -1350,6 +1461,9 @@
         <v>19</v>
       </c>
       <c r="B78" s="2"/>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
       <c r="D78" t="s">
         <v>91</v>
       </c>
@@ -1357,6 +1471,10 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" t="s">
+        <v>88</v>
       </c>
       <c r="D79" t="s">
         <v>91</v>

--- a/Planning/3D Checklist.xlsx
+++ b/Planning/3D Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>Assets</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>lara</t>
+  </si>
+  <si>
+    <t>yea</t>
   </si>
 </sst>
 </file>
@@ -719,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +756,12 @@
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -764,7 +773,13 @@
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -795,6 +810,15 @@
         <v>35</v>
       </c>
       <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1077,6 +1101,12 @@
         <v>69</v>
       </c>
       <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1146,6 +1176,12 @@
         <v>14</v>
       </c>
       <c r="B44" s="3"/>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1431,6 +1467,12 @@
         <v>47</v>
       </c>
       <c r="B75" s="3"/>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
